--- a/public/data/Import_Student_Template.xlsx
+++ b/public/data/Import_Student_Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21942" windowHeight="9437"/>
+    <workbookView windowWidth="21942" windowHeight="9882"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,6 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1084,6 +1083,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1095,9 +1097,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1642,8 +1641,8 @@
   <sheetPr/>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="15.4"/>
@@ -1665,58 +1664,58 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="8"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="9">
@@ -1727,26 +1726,26 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="8"/>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="9">
@@ -1757,26 +1756,26 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="9">
@@ -1787,26 +1786,26 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="9">
@@ -1817,26 +1816,26 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="8"/>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="9">
@@ -1847,26 +1846,26 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="9">
@@ -1877,26 +1876,26 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="9">
@@ -1907,26 +1906,26 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="9">
@@ -1937,26 +1936,26 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="9">
@@ -1967,26 +1966,26 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="9">
@@ -1997,26 +1996,26 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>55</v>
       </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="9">
@@ -2027,26 +2026,26 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="9">
@@ -2057,26 +2056,26 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>63</v>
       </c>
       <c r="G14" s="8"/>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="9">
@@ -2087,26 +2086,26 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I15" s="9">
@@ -2117,26 +2116,26 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="8" t="s">
         <v>71</v>
       </c>
       <c r="G16" s="8"/>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="9">
@@ -2147,26 +2146,26 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>75</v>
       </c>
       <c r="G17" s="8"/>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="9">
@@ -2177,26 +2176,26 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>79</v>
       </c>
       <c r="G18" s="8"/>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="9">
@@ -2207,26 +2206,26 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>83</v>
       </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="9">
@@ -2237,26 +2236,26 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>87</v>
       </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="9">
@@ -2267,26 +2266,26 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>91</v>
       </c>
       <c r="G21" s="8"/>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="9">
@@ -2297,26 +2296,26 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>95</v>
       </c>
       <c r="G22" s="8"/>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="9">
@@ -2327,26 +2326,26 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>98</v>
       </c>
       <c r="G23" s="8"/>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I23" s="9">
@@ -2357,26 +2356,26 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>102</v>
       </c>
       <c r="G24" s="8"/>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="9">
@@ -2387,26 +2386,26 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="E25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>106</v>
       </c>
       <c r="G25" s="8"/>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I25" s="9">
@@ -2417,26 +2416,26 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="E26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>109</v>
       </c>
       <c r="G26" s="8"/>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I26" s="9">
@@ -2447,26 +2446,26 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="E27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>113</v>
       </c>
       <c r="G27" s="8"/>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="9">
@@ -2477,26 +2476,26 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="E28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>117</v>
       </c>
       <c r="G28" s="8"/>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I28" s="9">
@@ -2507,26 +2506,26 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="E29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>121</v>
       </c>
       <c r="G29" s="8"/>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I29" s="9">
@@ -2537,26 +2536,26 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="E30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>125</v>
       </c>
       <c r="G30" s="8"/>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I30" s="9">
@@ -2567,26 +2566,26 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="E31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>129</v>
       </c>
       <c r="G31" s="8"/>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I31" s="9">
@@ -2597,26 +2596,26 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="E32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>133</v>
       </c>
       <c r="G32" s="8"/>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I32" s="9">
@@ -2627,26 +2626,26 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="7" t="s">
+      <c r="E33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>137</v>
       </c>
       <c r="G33" s="8"/>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I33" s="9">

--- a/public/data/Import_Student_Template.xlsx
+++ b/public/data/Import_Student_Template.xlsx
@@ -1076,27 +1076,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1642,7 +1641,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="15.4"/>
@@ -1705,23 +1704,23 @@
       <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="9">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="8">
         <v>37622</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>123456789</v>
       </c>
     </row>
@@ -1735,23 +1734,23 @@
       <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="9">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="8">
         <v>37623</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>123456790</v>
       </c>
     </row>
@@ -1765,23 +1764,23 @@
       <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="8">
         <v>37624</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>123456791</v>
       </c>
     </row>
@@ -1795,23 +1794,23 @@
       <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8">
         <v>37625</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <v>123456792</v>
       </c>
     </row>
@@ -1825,23 +1824,23 @@
       <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="8">
         <v>37626</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>123456793</v>
       </c>
     </row>
@@ -1855,23 +1854,23 @@
       <c r="C7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="8">
         <v>37627</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>123456794</v>
       </c>
     </row>
@@ -1885,23 +1884,23 @@
       <c r="C8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8">
         <v>37628</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>123456795</v>
       </c>
     </row>
@@ -1915,23 +1914,23 @@
       <c r="C9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="8">
         <v>37629</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>123456796</v>
       </c>
     </row>
@@ -1945,23 +1944,23 @@
       <c r="C10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="9">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="8">
         <v>37630</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>123456797</v>
       </c>
     </row>
@@ -1975,23 +1974,23 @@
       <c r="C11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="8">
         <v>37631</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <v>123456798</v>
       </c>
     </row>
@@ -2005,23 +2004,23 @@
       <c r="C12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="9">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="8">
         <v>37632</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>123456799</v>
       </c>
     </row>
@@ -2035,23 +2034,23 @@
       <c r="C13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="9">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="8">
         <v>37633</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <v>123456800</v>
       </c>
     </row>
@@ -2065,23 +2064,23 @@
       <c r="C14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="8">
         <v>37634</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>123456801</v>
       </c>
     </row>
@@ -2095,23 +2094,23 @@
       <c r="C15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="9">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="8">
         <v>37635</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>123456802</v>
       </c>
     </row>
@@ -2125,23 +2124,23 @@
       <c r="C16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="9">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="8">
         <v>37636</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <v>123456803</v>
       </c>
     </row>
@@ -2155,23 +2154,23 @@
       <c r="C17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="E17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="9">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="8">
         <v>37637</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <v>123456804</v>
       </c>
     </row>
@@ -2185,23 +2184,23 @@
       <c r="C18" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="9">
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="8">
         <v>37638</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <v>123456805</v>
       </c>
     </row>
@@ -2215,23 +2214,23 @@
       <c r="C19" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="9">
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="8">
         <v>37639</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <v>123456806</v>
       </c>
     </row>
@@ -2245,23 +2244,23 @@
       <c r="C20" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="9">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="8">
         <v>37640</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <v>123456807</v>
       </c>
     </row>
@@ -2275,23 +2274,23 @@
       <c r="C21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="8" t="s">
+      <c r="E21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="9">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="8">
         <v>37641</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <v>123456808</v>
       </c>
     </row>
@@ -2305,23 +2304,23 @@
       <c r="C22" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="E22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="9">
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="8">
         <v>37642</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <v>123456809</v>
       </c>
     </row>
@@ -2335,23 +2334,23 @@
       <c r="C23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="E23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="9">
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="8">
         <v>37643</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <v>123456810</v>
       </c>
     </row>
@@ -2365,23 +2364,23 @@
       <c r="C24" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="E24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="9">
+      <c r="G24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="8">
         <v>37644</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <v>123456811</v>
       </c>
     </row>
@@ -2395,23 +2394,23 @@
       <c r="C25" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="E25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="9">
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="8">
         <v>37645</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <v>123456812</v>
       </c>
     </row>
@@ -2425,23 +2424,23 @@
       <c r="C26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="E26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="9">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="8">
         <v>37646</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="9">
         <v>123456813</v>
       </c>
     </row>
@@ -2455,23 +2454,23 @@
       <c r="C27" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="E27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="9">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="8">
         <v>37647</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="9">
         <v>123456814</v>
       </c>
     </row>
@@ -2485,23 +2484,23 @@
       <c r="C28" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="8" t="s">
+      <c r="E28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="9">
+      <c r="G28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="8">
         <v>37648</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="9">
         <v>123456815</v>
       </c>
     </row>
@@ -2515,23 +2514,23 @@
       <c r="C29" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="8" t="s">
+      <c r="E29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="9">
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="8">
         <v>37649</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="9">
         <v>123456816</v>
       </c>
     </row>
@@ -2545,23 +2544,23 @@
       <c r="C30" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="E30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="9">
+      <c r="G30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="8">
         <v>37650</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="9">
         <v>123456817</v>
       </c>
     </row>
@@ -2575,23 +2574,23 @@
       <c r="C31" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="8" t="s">
+      <c r="E31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="9">
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="8">
         <v>37651</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="9">
         <v>123456818</v>
       </c>
     </row>
@@ -2605,23 +2604,23 @@
       <c r="C32" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="8" t="s">
+      <c r="E32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="9">
+      <c r="G32" s="7"/>
+      <c r="H32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="8">
         <v>37652</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="9">
         <v>123456819</v>
       </c>
     </row>
@@ -2635,27 +2634,32 @@
       <c r="C33" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="8" t="s">
+      <c r="E33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="9">
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="8">
         <v>37653</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="9">
         <v>123456820</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E33">
+      <formula1>"male,female"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
